--- a/HMAHCC_DataDictionary.xlsx
+++ b/HMAHCC_DataDictionary.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\D725\AllDept\SHARED\CompanyRead\Texas A&amp;M Judging Event\TAMU 2019\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenson\Documents\GitHub\Humana-Mays-Competition\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1465A31B-0FE0-4528-A2B0-15981B7C3AF4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1820" windowWidth="16610" windowHeight="5700" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-10335" windowWidth="16440" windowHeight="38040" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="event_groups" sheetId="1" state="hidden" r:id="rId1"/>
@@ -919,7 +920,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1681,6 +1682,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1716,6 +1734,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1891,7 +1926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1899,23 +1934,23 @@
       <selection pane="bottomLeft" activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.81640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="9.81640625" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="1" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="21.26953125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.453125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.81640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.1796875" style="1"/>
+    <col min="7" max="7" width="21.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1950,7 +1985,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1982,7 +2017,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2014,7 +2049,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2046,7 +2081,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="36" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2081,7 +2116,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2113,7 +2148,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="36" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2148,7 +2183,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2180,7 +2215,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2213,7 +2248,7 @@
       </c>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2246,7 +2281,7 @@
       </c>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2279,7 +2314,7 @@
       </c>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2311,7 +2346,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2343,7 +2378,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="60" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="60" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2378,7 +2413,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="36" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2413,7 +2448,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2445,7 +2480,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2477,7 +2512,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2512,7 +2547,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2547,7 +2582,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2580,7 +2615,7 @@
       </c>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2615,7 +2650,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2650,7 +2685,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2685,7 +2720,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2717,7 +2752,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2747,7 +2782,7 @@
       </c>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2779,7 +2814,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2812,7 +2847,7 @@
       </c>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2844,7 +2879,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2876,7 +2911,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2908,7 +2943,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2940,7 +2975,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2972,7 +3007,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2992,7 +3027,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3012,7 +3047,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="36" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3047,7 +3082,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="36" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3082,7 +3117,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3114,7 +3149,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3134,7 +3169,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3154,7 +3189,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3186,7 +3221,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3218,7 +3253,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3238,7 +3273,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3258,7 +3293,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3288,7 +3323,7 @@
       </c>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3318,7 +3353,7 @@
       </c>
       <c r="K45" s="2"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3348,7 +3383,7 @@
       </c>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3378,7 +3413,7 @@
       </c>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3408,7 +3443,7 @@
       </c>
       <c r="K48" s="2"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3440,7 +3475,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3472,7 +3507,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3504,7 +3539,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3536,7 +3571,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -3568,7 +3603,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3600,7 +3635,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3632,7 +3667,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3664,7 +3699,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -3696,7 +3731,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3728,7 +3763,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -3760,7 +3795,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -3792,7 +3827,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -3825,8 +3860,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K61">
-    <sortState ref="A2:K61">
+  <autoFilter ref="A1:K61" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K61">
       <sortCondition ref="A1:A61"/>
     </sortState>
   </autoFilter>
@@ -3836,22 +3871,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="4"/>
-    <col min="2" max="2" width="23.90625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="21.6328125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="21.6328125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="16.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="4"/>
+    <col min="1" max="1" width="8.7109375" style="4"/>
+    <col min="2" max="2" width="23.85546875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
         <v>287</v>
       </c>
@@ -3862,7 +3897,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="17" t="s">
         <v>288</v>
       </c>
@@ -3873,7 +3908,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
         <v>289</v>
       </c>
@@ -3884,7 +3919,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="s">
         <v>290</v>
       </c>
@@ -3894,12 +3929,12 @@
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C8" s="21" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C9" s="21" t="s">
         <v>293</v>
       </c>
@@ -3911,17 +3946,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>283</v>
       </c>
@@ -3929,7 +3966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>251</v>
       </c>
@@ -3937,7 +3974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>284</v>
       </c>
@@ -3945,7 +3982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>252</v>
       </c>
@@ -3953,7 +3990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>253</v>
       </c>
@@ -3961,7 +3998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>254</v>
       </c>
@@ -3969,7 +4006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>255</v>
       </c>
@@ -3977,7 +4014,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>256</v>
       </c>
@@ -3985,7 +4022,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>257</v>
       </c>
@@ -3993,7 +4030,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>258</v>
       </c>
@@ -4001,7 +4038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>259</v>
       </c>
@@ -4009,7 +4046,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>260</v>
       </c>
@@ -4017,7 +4054,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>262</v>
       </c>
@@ -4025,7 +4062,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>263</v>
       </c>
@@ -4033,7 +4070,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>264</v>
       </c>
@@ -4041,7 +4078,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>265</v>
       </c>
@@ -4049,7 +4086,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>266</v>
       </c>
@@ -4057,7 +4094,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>267</v>
       </c>
@@ -4065,7 +4102,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>268</v>
       </c>
@@ -4073,7 +4110,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>261</v>
       </c>
@@ -4088,33 +4125,33 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="4"/>
+    <col min="4" max="4" width="22.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>251</v>
       </c>
@@ -4152,7 +4189,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>21</v>
       </c>
@@ -4180,7 +4217,7 @@
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
     </row>
-    <row r="3" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
@@ -4208,7 +4245,7 @@
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
     </row>
-    <row r="4" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>32</v>
       </c>
@@ -4236,7 +4273,7 @@
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
@@ -4264,7 +4301,7 @@
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
     </row>
-    <row r="6" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>79</v>
       </c>
@@ -4292,7 +4329,7 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>84</v>
       </c>
@@ -4320,7 +4357,7 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
     </row>
-    <row r="8" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>89</v>
       </c>
@@ -4342,7 +4379,7 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
     </row>
-    <row r="9" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>125</v>
       </c>
@@ -4370,7 +4407,7 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
     </row>
-    <row r="10" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>127</v>
       </c>
@@ -4398,7 +4435,7 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>129</v>
       </c>
@@ -4426,7 +4463,7 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>131</v>
       </c>
@@ -4454,7 +4491,7 @@
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
     </row>
-    <row r="13" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>133</v>
       </c>
@@ -4482,7 +4519,7 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
     </row>
-    <row r="14" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>145</v>
       </c>
@@ -4516,7 +4553,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>147</v>
       </c>
@@ -4554,7 +4591,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>239</v>
       </c>
@@ -4588,7 +4625,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>240</v>
       </c>

--- a/HMAHCC_DataDictionary.xlsx
+++ b/HMAHCC_DataDictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenson\Documents\GitHub\Humana-Mays-Competition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1465A31B-0FE0-4528-A2B0-15981B7C3AF4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E64A87C-8E6E-481B-B7A9-A24D6A139400}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-10335" windowWidth="16440" windowHeight="38040" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1085,7 +1085,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1291,19 +1291,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1483,7 +1507,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1492,18 +1516,6 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1528,10 +1540,10 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="39" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="37" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1543,6 +1555,55 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="41" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="41" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="42" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="42" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="43" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="43" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3879,63 +3940,63 @@
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" style="4"/>
-    <col min="2" max="2" width="23.85546875" style="15" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="11" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.7109375" style="4"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="15" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="12">
         <v>6086969</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="12">
         <v>14000</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="12">
         <v>1480394</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="12">
         <v>6000</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="17" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="17" t="s">
         <v>293</v>
       </c>
     </row>
@@ -3950,7 +4011,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="A13" sqref="A13:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3959,162 +4020,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="B1" s="11">
+      <c r="B1" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="7">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="7">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="7">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="7">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="7">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="7">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="7">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="7">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="7">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="7">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="7">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="7">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="7">
         <v>20</v>
       </c>
     </row>
@@ -4131,7 +4192,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD6"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4151,511 +4212,511 @@
     <col min="13" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:12" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="9" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:12" s="24" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-    </row>
-    <row r="3" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+    </row>
+    <row r="3" spans="1:12" s="24" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+    </row>
+    <row r="4" spans="1:12" s="24" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-    </row>
-    <row r="5" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+    </row>
+    <row r="5" spans="1:12" s="27" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-    </row>
-    <row r="6" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+    </row>
+    <row r="6" spans="1:12" s="21" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-    </row>
-    <row r="7" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+    </row>
+    <row r="7" spans="1:12" s="27" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-    </row>
-    <row r="8" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+    </row>
+    <row r="8" spans="1:12" s="30" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-    </row>
-    <row r="9" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+    </row>
+    <row r="9" spans="1:12" s="21" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="10" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+    </row>
+    <row r="10" spans="1:12" s="21" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-    </row>
-    <row r="11" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+    </row>
+    <row r="11" spans="1:12" s="21" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-    </row>
-    <row r="12" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+    </row>
+    <row r="12" spans="1:12" s="21" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-    </row>
-    <row r="13" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+    </row>
+    <row r="13" spans="1:12" s="21" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-    </row>
-    <row r="14" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+    </row>
+    <row r="14" spans="1:12" s="36" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="35" t="s">
         <v>241</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="35" t="s">
         <v>270</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9" t="s">
+      <c r="D14" s="35"/>
+      <c r="E14" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="35" t="s">
         <v>277</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="35" t="s">
         <v>279</v>
       </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9" t="s">
+      <c r="I14" s="35"/>
+      <c r="J14" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K14" s="35" t="s">
         <v>278</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="L14" s="35" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:12" s="39" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="38" t="s">
         <v>271</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="38" t="s">
         <v>244</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="38" t="s">
         <v>245</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="38" t="s">
         <v>280</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="38" t="s">
         <v>250</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="38" t="s">
         <v>278</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="L15" s="38" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:12" s="33" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="31" t="s">
         <v>239</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="32" t="s">
         <v>270</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="32" t="s">
         <v>245</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9" t="s">
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32" t="s">
         <v>246</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="K16" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="L16" s="9" t="s">
+      <c r="L16" s="32" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:12" s="33" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="32" t="s">
         <v>270</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="32" t="s">
         <v>245</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7" t="s">
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32" t="s">
         <v>246</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="L17" s="32" t="s">
         <v>281</v>
       </c>
     </row>
